--- a/FoF/Strategy-one/strategy_1.xlsx
+++ b/FoF/Strategy-one/strategy_1.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Roy/Documents/Investment/Investment/FoF/Strategy-one/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{887B5AF9-C821-1B40-BE93-83EB9351E58B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B38143D-E944-CB4F-AF3B-293EC3F4BAA9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="16760" xr2:uid="{41F20334-4E42-CF43-BE1D-C91168EDEF68}"/>
+    <workbookView xWindow="7940" yWindow="3860" windowWidth="28040" windowHeight="16720" xr2:uid="{41F20334-4E42-CF43-BE1D-C91168EDEF68}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -380,44 +380,81 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DAE0BF9-9AB5-5246-8878-EBE2D381858F}">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>4175</v>
       </c>
       <c r="B1" s="1">
         <v>0.06</v>
       </c>
+      <c r="C1">
+        <v>3.23</v>
+      </c>
+      <c r="D1">
+        <v>3.24</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2771</v>
       </c>
       <c r="B2" s="1">
         <v>0.46</v>
       </c>
+      <c r="C2">
+        <f>26000/50000</f>
+        <v>0.52</v>
+      </c>
+      <c r="D2">
+        <v>23000</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>1625</v>
+        <v>1657</v>
       </c>
       <c r="B3" s="1">
         <v>0.18</v>
       </c>
+      <c r="C3">
+        <f xml:space="preserve"> 9000/50000</f>
+        <v>0.18</v>
+      </c>
+      <c r="D3">
+        <v>12000</v>
+      </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2620</v>
       </c>
       <c r="B4" s="1">
         <v>0.3</v>
+      </c>
+      <c r="C4">
+        <f xml:space="preserve"> 15000 / 50000</f>
+        <v>0.3</v>
+      </c>
+      <c r="D4">
+        <v>15000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="C6">
+        <f>SUM(C2:C4)</f>
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <f>SUM(D2:D4)</f>
+        <v>50000</v>
       </c>
     </row>
   </sheetData>

--- a/FoF/Strategy-one/strategy_1.xlsx
+++ b/FoF/Strategy-one/strategy_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Roy/Documents/Investment/Investment/FoF/Strategy-one/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B38143D-E944-CB4F-AF3B-293EC3F4BAA9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D371A39B-A48A-B048-9787-26344C6F5F2A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7940" yWindow="3860" windowWidth="28040" windowHeight="16720" xr2:uid="{41F20334-4E42-CF43-BE1D-C91168EDEF68}"/>
+    <workbookView xWindow="760" yWindow="460" windowWidth="28040" windowHeight="16680" xr2:uid="{41F20334-4E42-CF43-BE1D-C91168EDEF68}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -380,15 +380,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5DAE0BF9-9AB5-5246-8878-EBE2D381858F}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>4175</v>
       </c>
@@ -402,7 +402,7 @@
         <v>3.24</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>2771</v>
       </c>
@@ -416,8 +416,11 @@
       <c r="D2">
         <v>23000</v>
       </c>
+      <c r="F2">
+        <v>23000</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1657</v>
       </c>
@@ -431,8 +434,11 @@
       <c r="D3">
         <v>12000</v>
       </c>
+      <c r="F3">
+        <v>12000</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2620</v>
       </c>
@@ -446,8 +452,11 @@
       <c r="D4">
         <v>15000</v>
       </c>
+      <c r="F4">
+        <v>15000</v>
+      </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C6">
         <f>SUM(C2:C4)</f>
         <v>1</v>
